--- a/excel/serious_abnormal_history.xlsx
+++ b/excel/serious_abnormal_history.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="75">
   <si>
     <t>日期</t>
   </si>
@@ -46,6 +46,12 @@
     <t>预计触发天数</t>
   </si>
   <si>
+    <t>2025-04-23</t>
+  </si>
+  <si>
+    <t>2025-04-22</t>
+  </si>
+  <si>
     <t>2025-04-21</t>
   </si>
   <si>
@@ -55,105 +61,78 @@
     <t>2025-04-17</t>
   </si>
   <si>
-    <t>835179</t>
+    <t>601086</t>
+  </si>
+  <si>
+    <t>002165</t>
+  </si>
+  <si>
+    <t>300108</t>
   </si>
   <si>
     <t>300379</t>
   </si>
   <si>
-    <t>300108</t>
-  </si>
-  <si>
-    <t>600804</t>
-  </si>
-  <si>
-    <t>873132</t>
-  </si>
-  <si>
-    <t>001234</t>
-  </si>
-  <si>
-    <t>600387</t>
-  </si>
-  <si>
-    <t>002693</t>
-  </si>
-  <si>
-    <t>831087</t>
-  </si>
-  <si>
-    <t>601008</t>
-  </si>
-  <si>
-    <t>002289</t>
-  </si>
-  <si>
-    <t>601086</t>
-  </si>
-  <si>
-    <t>839273</t>
-  </si>
-  <si>
-    <t>872351</t>
-  </si>
-  <si>
-    <t>600610</t>
+    <t>国芳集团</t>
+  </si>
+  <si>
+    <t>红 宝 丽</t>
+  </si>
+  <si>
+    <t>xST吉药</t>
+  </si>
+  <si>
+    <t>东方通</t>
+  </si>
+  <si>
+    <t>国光连锁</t>
+  </si>
+  <si>
+    <t>中旗新材</t>
+  </si>
+  <si>
+    <t>乐山电力</t>
+  </si>
+  <si>
+    <t>安记食品</t>
+  </si>
+  <si>
+    <t>双成药业</t>
+  </si>
+  <si>
+    <t>泰慕士</t>
+  </si>
+  <si>
+    <t>泰鹏智能</t>
+  </si>
+  <si>
+    <t>xST鹏博</t>
+  </si>
+  <si>
+    <t>中毅达</t>
+  </si>
+  <si>
+    <t>创远信科</t>
+  </si>
+  <si>
+    <t>万通液压</t>
   </si>
   <si>
     <t>ST宇顺</t>
   </si>
   <si>
-    <t>国芳集团</t>
-  </si>
-  <si>
-    <t>红 宝 丽</t>
-  </si>
-  <si>
-    <t>中毅达</t>
-  </si>
-  <si>
-    <t>xST吉药</t>
-  </si>
-  <si>
-    <t>xST鹏博</t>
-  </si>
-  <si>
-    <t>泰鹏智能</t>
-  </si>
-  <si>
-    <t>泰慕士</t>
-  </si>
-  <si>
-    <t>双成药业</t>
-  </si>
-  <si>
-    <t>创远信科</t>
-  </si>
-  <si>
-    <t>万通液压</t>
-  </si>
-  <si>
-    <t>安记食品</t>
-  </si>
-  <si>
-    <t>乐山电力</t>
-  </si>
-  <si>
-    <t>东方通</t>
-  </si>
-  <si>
     <t>立方制药</t>
   </si>
   <si>
-    <t>国光连锁</t>
-  </si>
-  <si>
     <t>凯德石英</t>
   </si>
   <si>
     <t>一致魔芋</t>
   </si>
   <si>
+    <t>华光源海</t>
+  </si>
+  <si>
     <t>xST海越</t>
   </si>
   <si>
@@ -163,64 +142,94 @@
     <t>连云港</t>
   </si>
   <si>
-    <t>华光源海</t>
+    <t>29日偏离度已达158.16%，即将临近严重异动阈值</t>
+  </si>
+  <si>
+    <t>29日偏离度已达151.47%，即将临近严重异动阈值</t>
+  </si>
+  <si>
+    <t>30日偏离度达到-81.08%</t>
+  </si>
+  <si>
+    <t>10日偏离度达到-50.23%</t>
+  </si>
+  <si>
+    <t>10日偏离度达到+111.97%</t>
+  </si>
+  <si>
+    <t>29日偏离度已达151.93%，即将临近严重异动阈值</t>
+  </si>
+  <si>
+    <t>9日偏离度已达77.75%，即将临近严重异动阈值</t>
+  </si>
+  <si>
+    <t>10日偏离度达到+121.61%</t>
+  </si>
+  <si>
+    <t>30日偏离度达到-76.92%</t>
+  </si>
+  <si>
+    <t>29日偏离度已达178.83%，下一交易日若涨幅&gt;=21.17%将触发严重异动</t>
+  </si>
+  <si>
+    <t>9日偏离度已达82.18%，下一交易日若涨幅&gt;=17.82%将触发严重异动</t>
+  </si>
+  <si>
+    <t>9日偏离度已达-45.97%，即将临近严重异动阈值</t>
+  </si>
+  <si>
+    <t>30日偏离度达到-71.70%</t>
+  </si>
+  <si>
+    <t>10日内5次同向上涨异常波动</t>
   </si>
   <si>
     <t>10日内4次同向上涨异常波动</t>
   </si>
   <si>
+    <t>10日内5次同向下跌异常波动</t>
+  </si>
+  <si>
+    <t>29日偏离度已达170.88%，下一交易日若涨幅&gt;=29.12%将触发严重异动</t>
+  </si>
+  <si>
+    <t>10日偏离度达到+116.41%</t>
+  </si>
+  <si>
     <t>10日偏离度达到+121.70%</t>
   </si>
   <si>
-    <t>10日内5次同向上涨异常波动</t>
-  </si>
-  <si>
-    <t>29日偏离度已达170.88%，下一交易日若涨幅&gt;=29.12%将触发严重异动</t>
-  </si>
-  <si>
-    <t>30日偏离度达到-71.70%</t>
-  </si>
-  <si>
-    <t>10日内5次同向下跌异常波动</t>
-  </si>
-  <si>
-    <t>9日偏离度已达-45.97%，即将临近严重异动阈值</t>
-  </si>
-  <si>
-    <t>10日偏离度达到+116.41%</t>
+    <t>10日偏离度达到-52.00%</t>
+  </si>
+  <si>
+    <t>10日偏离度达到-59.34%</t>
+  </si>
+  <si>
+    <t>10日偏离度达到+121.56%</t>
   </si>
   <si>
     <t>9日偏离度已达76.52%，即将临近严重异动阈值</t>
   </si>
   <si>
-    <t>10日偏离度达到+121.56%</t>
-  </si>
-  <si>
-    <t>10日偏离度达到-52.00%</t>
-  </si>
-  <si>
-    <t>10日偏离度达到-59.34%</t>
-  </si>
-  <si>
     <t>29日偏离度已达179.16%，下一交易日若涨幅&gt;=20.84%将触发严重异动</t>
   </si>
   <si>
+    <t>10日偏离度达到+104.05%</t>
+  </si>
+  <si>
+    <t>10日偏离度达到+121.64%</t>
+  </si>
+  <si>
+    <t>9日偏离度已达-49.45%，下一交易日若跌幅&gt;=0.55%将触发严重异动</t>
+  </si>
+  <si>
     <t>9日偏离度已达-47.81%，下一交易日若跌幅&gt;=2.19%将触发严重异动</t>
   </si>
   <si>
-    <t>9日偏离度已达-49.45%，下一交易日若跌幅&gt;=0.55%将触发严重异动</t>
+    <t>10日偏离度达到+106.27%</t>
   </si>
   <si>
     <t>10日内4次同向下跌异常波动</t>
-  </si>
-  <si>
-    <t>10日偏离度达到+121.64%</t>
-  </si>
-  <si>
-    <t>10日偏离度达到+106.27%</t>
-  </si>
-  <si>
-    <t>10日偏离度达到+104.05%</t>
   </si>
   <si>
     <t>29日偏离度已达174.69%，下一交易日若涨幅&gt;=25.31%将触发严重异动</t>
@@ -301,7 +310,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF6347"/>
+          <bgColor rgb="FF90EE90"/>
         </patternFill>
       </fill>
     </dxf>
@@ -315,7 +324,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFD700"/>
+          <bgColor rgb="FFFF6347"/>
         </patternFill>
       </fill>
     </dxf>
@@ -329,7 +338,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF90EE90"/>
+          <bgColor rgb="FFFFD700"/>
         </patternFill>
       </fill>
     </dxf>
@@ -623,7 +632,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:J57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -670,93 +679,93 @@
       <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2">
-        <v>2289</v>
+      <c r="B2" t="s">
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E2">
-        <v>28</v>
+        <v>81.49210903873745</v>
       </c>
       <c r="F2">
-        <v>64.70588235294117</v>
+        <v>160.8247422680412</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I2">
-        <v>6.72</v>
+        <v>12.65</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="B3">
-        <v>601086</v>
+      <c r="B3" t="s">
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E3">
-        <v>121.7013888888889</v>
+        <v>68.59154929577467</v>
       </c>
       <c r="F3">
-        <v>170.5508474576271</v>
+        <v>150.9433962264152</v>
       </c>
       <c r="G3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I3">
-        <v>12.77</v>
+        <v>11.97</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="B4">
-        <v>2165</v>
+      <c r="B4" t="s">
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E4">
-        <v>86.57407407407408</v>
+        <v>-74.07407407407408</v>
       </c>
       <c r="F4">
-        <v>149.2783505154639</v>
+        <v>-81.08108108108108</v>
       </c>
       <c r="G4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H4" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="I4">
-        <v>12.09</v>
+        <v>0.21</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -766,61 +775,61 @@
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5">
-        <v>600610</v>
+      <c r="B5" t="s">
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E5">
-        <v>43.02741358760429</v>
+        <v>-50.23411371237459</v>
       </c>
       <c r="F5">
-        <v>197.7667493796526</v>
+        <v>-57.98983625070582</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="I5">
-        <v>12</v>
+        <v>7.44</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>300108</v>
+        <v>605188</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E6">
-        <v>-63.41463414634146</v>
+        <v>111.968085106383</v>
       </c>
       <c r="F6">
-        <v>-71.69811320754718</v>
+        <v>109.46123521682</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I6">
-        <v>0.3</v>
+        <v>15.94</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -828,95 +837,95 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>600804</v>
+        <v>1212</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E7">
-        <v>-32.8</v>
+        <v>24.60233297985155</v>
       </c>
       <c r="F7">
-        <v>-45.45454545454546</v>
+        <v>150.4262574595055</v>
       </c>
       <c r="G7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I7">
-        <v>0.84</v>
+        <v>58.75</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>873132</v>
+        <v>600644</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E8">
-        <v>58.06201550387598</v>
+        <v>84.06827880512088</v>
       </c>
       <c r="F8">
-        <v>27.91718946047679</v>
+        <v>104.4233807266982</v>
       </c>
       <c r="G8">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I8">
-        <v>20.39</v>
+        <v>12.94</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9">
-        <v>1234</v>
+        <v>601086</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E9">
-        <v>39.35128518971849</v>
+        <v>121.608832807571</v>
       </c>
       <c r="F9">
-        <v>30.56192660550458</v>
+        <v>196.4135021097047</v>
       </c>
       <c r="G9">
         <v>5</v>
       </c>
       <c r="H9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I9">
-        <v>22.77</v>
+        <v>14.05</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -924,31 +933,31 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>2693</v>
+        <v>300108</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E10">
-        <v>54.37908496732027</v>
+        <v>-71.08433734939759</v>
       </c>
       <c r="F10">
-        <v>-12.71249076127124</v>
+        <v>-76.92307692307693</v>
       </c>
       <c r="G10">
         <v>5</v>
       </c>
       <c r="H10" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="I10">
-        <v>11.81</v>
+        <v>0.24</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -956,127 +965,127 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11">
-        <v>831961</v>
+        <v>2165</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E11">
-        <v>60.02855103497504</v>
+        <v>86.5357643758766</v>
       </c>
       <c r="F11">
-        <v>6.356736242884264</v>
+        <v>176.5072765072765</v>
       </c>
       <c r="G11">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I11">
-        <v>22.42</v>
+        <v>13.3</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12">
-        <v>830839</v>
+        <v>603696</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E12">
-        <v>56.2911003945638</v>
+        <v>86.70807453416147</v>
       </c>
       <c r="F12">
-        <v>25.61663143058492</v>
+        <v>67.93296089385477</v>
       </c>
       <c r="G12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I12">
-        <v>35.65</v>
+        <v>15.03</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B13">
-        <v>603696</v>
+        <v>300379</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E13">
-        <v>75.80437580437582</v>
+        <v>-42.32558139534883</v>
       </c>
       <c r="F13">
-        <v>55.58086560364466</v>
+        <v>-60.19261637239166</v>
       </c>
       <c r="G13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="I13">
-        <v>13.66</v>
+        <v>7.44</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>600644</v>
+        <v>300108</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E14">
-        <v>84.03755868544603</v>
+        <v>-63.41463414634146</v>
       </c>
       <c r="F14">
-        <v>87.55980861244019</v>
+        <v>-71.69811320754718</v>
       </c>
       <c r="G14">
         <v>4</v>
       </c>
       <c r="H14" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="I14">
-        <v>11.76</v>
+        <v>0.3</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1084,63 +1093,63 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B15">
-        <v>300379</v>
+        <v>2693</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E15">
-        <v>-42.32558139534883</v>
+        <v>54.37908496732027</v>
       </c>
       <c r="F15">
-        <v>-60.19261637239166</v>
+        <v>-12.71249076127124</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H15" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I15">
-        <v>7.44</v>
+        <v>11.81</v>
       </c>
       <c r="J15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B16">
-        <v>3020</v>
+        <v>603696</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E16">
-        <v>70.30033370411569</v>
+        <v>75.80437580437582</v>
       </c>
       <c r="F16">
-        <v>65.87215601300107</v>
+        <v>55.58086560364466</v>
       </c>
       <c r="G16">
         <v>4</v>
       </c>
       <c r="H16" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I16">
-        <v>30.62</v>
+        <v>13.66</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1148,31 +1157,31 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B17">
-        <v>605188</v>
+        <v>1234</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="D17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E17">
-        <v>116.4051355206847</v>
+        <v>39.35128518971849</v>
       </c>
       <c r="F17">
-        <v>101.1936339522546</v>
+        <v>30.56192660550458</v>
       </c>
       <c r="G17">
         <v>5</v>
       </c>
       <c r="H17" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I17">
-        <v>15.17</v>
+        <v>22.77</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1180,31 +1189,31 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B18">
-        <v>835179</v>
+        <v>873132</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="D18" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E18">
-        <v>57.68463073852295</v>
+        <v>58.06201550387598</v>
       </c>
       <c r="F18">
-        <v>17.24547343425349</v>
+        <v>27.91718946047679</v>
       </c>
       <c r="G18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H18" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I18">
-        <v>39.5</v>
+        <v>20.39</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1212,31 +1221,31 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B19">
-        <v>605188</v>
+        <v>600804</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="D19" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E19">
-        <v>81.44736842105263</v>
+        <v>-32.8</v>
       </c>
       <c r="F19">
-        <v>86.35135135135133</v>
+        <v>-45.45454545454546</v>
       </c>
       <c r="G19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H19" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="I19">
-        <v>13.79</v>
+        <v>0.84</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1244,63 +1253,63 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B20">
-        <v>839273</v>
+        <v>600610</v>
       </c>
       <c r="C20" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D20" t="s">
         <v>58</v>
       </c>
       <c r="E20">
-        <v>79.17424045702417</v>
+        <v>43.02741358760429</v>
       </c>
       <c r="F20">
-        <v>153.8631346578367</v>
+        <v>197.7667493796526</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I20">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="J20">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B21">
-        <v>601086</v>
+        <v>2165</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E21">
-        <v>121.5648854961832</v>
+        <v>86.57407407407408</v>
       </c>
       <c r="F21">
-        <v>140.3726708074534</v>
+        <v>149.2783505154639</v>
       </c>
       <c r="G21">
         <v>5</v>
       </c>
       <c r="H21" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I21">
-        <v>11.61</v>
+        <v>12.09</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1308,31 +1317,31 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B22">
-        <v>300379</v>
+        <v>831961</v>
       </c>
       <c r="C22" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D22" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E22">
-        <v>-51.99742268041236</v>
+        <v>60.02855103497504</v>
       </c>
       <c r="F22">
-        <v>-61.35892116182573</v>
+        <v>6.356736242884264</v>
       </c>
       <c r="G22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H22" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I22">
-        <v>7.45</v>
+        <v>22.42</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1340,31 +1349,31 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B23">
-        <v>300108</v>
+        <v>830839</v>
       </c>
       <c r="C23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D23" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E23">
-        <v>-59.34065934065934</v>
+        <v>56.2911003945638</v>
       </c>
       <c r="F23">
-        <v>-65.09433962264151</v>
+        <v>25.61663143058492</v>
       </c>
       <c r="G23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H23" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I23">
-        <v>0.37</v>
+        <v>35.65</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1372,31 +1381,31 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B24">
-        <v>2289</v>
+        <v>600644</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E24">
-        <v>15.73236889692586</v>
+        <v>84.03755868544603</v>
       </c>
       <c r="F24">
-        <v>56.86274509803921</v>
+        <v>87.55980861244019</v>
       </c>
       <c r="G24">
         <v>4</v>
       </c>
       <c r="H24" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I24">
-        <v>6.4</v>
+        <v>11.76</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1404,31 +1413,31 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B25">
-        <v>1234</v>
+        <v>2289</v>
       </c>
       <c r="C25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D25" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E25">
-        <v>39.3171806167401</v>
+        <v>28</v>
       </c>
       <c r="F25">
-        <v>44.73684210526316</v>
+        <v>64.70588235294117</v>
       </c>
       <c r="G25">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H25" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I25">
-        <v>25.3</v>
+        <v>6.72</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1436,31 +1445,31 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B26">
-        <v>2165</v>
+        <v>3020</v>
       </c>
       <c r="C26" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D26" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E26">
-        <v>69.55903271692745</v>
+        <v>70.30033370411569</v>
       </c>
       <c r="F26">
-        <v>147.8170478170478</v>
+        <v>65.87215601300107</v>
       </c>
       <c r="G26">
         <v>4</v>
       </c>
       <c r="H26" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I26">
-        <v>11.92</v>
+        <v>30.62</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -1468,31 +1477,31 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B27">
-        <v>873132</v>
+        <v>605188</v>
       </c>
       <c r="C27" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D27" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="E27">
-        <v>25.58139534883721</v>
+        <v>116.4051355206847</v>
       </c>
       <c r="F27">
-        <v>26.13636363636365</v>
+        <v>101.1936339522546</v>
       </c>
       <c r="G27">
         <v>5</v>
       </c>
       <c r="H27" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I27">
-        <v>19.98</v>
+        <v>15.17</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -1500,31 +1509,31 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B28">
-        <v>600804</v>
+        <v>835179</v>
       </c>
       <c r="C28" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E28">
-        <v>-33.33333333333334</v>
+        <v>57.68463073852295</v>
       </c>
       <c r="F28">
-        <v>-45.67901234567901</v>
+        <v>17.24547343425349</v>
       </c>
       <c r="G28">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H28" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I28">
-        <v>0.88</v>
+        <v>39.5</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -1532,63 +1541,63 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B29">
-        <v>600610</v>
+        <v>601086</v>
       </c>
       <c r="C29" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E29">
-        <v>20.70815450643777</v>
+        <v>121.7013888888889</v>
       </c>
       <c r="F29">
-        <v>176.4127764127764</v>
+        <v>170.5508474576271</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H29" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I29">
-        <v>11.25</v>
+        <v>12.77</v>
       </c>
       <c r="J29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B30">
-        <v>835179</v>
+        <v>300379</v>
       </c>
       <c r="C30" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="D30" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="E30">
-        <v>25.53968781135833</v>
+        <v>-51.99742268041236</v>
       </c>
       <c r="F30">
-        <v>11.73514631983446</v>
+        <v>-61.35892116182573</v>
       </c>
       <c r="G30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H30" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="I30">
-        <v>37.8</v>
+        <v>7.45</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -1596,31 +1605,31 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B31">
-        <v>2693</v>
+        <v>2165</v>
       </c>
       <c r="C31" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="D31" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E31">
-        <v>54.35294117647058</v>
+        <v>69.55903271692745</v>
       </c>
       <c r="F31">
-        <v>-6.218727662616164</v>
+        <v>147.8170478170478</v>
       </c>
       <c r="G31">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H31" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I31">
-        <v>13.12</v>
+        <v>11.92</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -1628,31 +1637,31 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>12</v>
-      </c>
-      <c r="B32" t="s">
         <v>13</v>
       </c>
+      <c r="B32">
+        <v>2289</v>
+      </c>
       <c r="C32" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D32" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E32">
-        <v>26.50290885585003</v>
+        <v>15.73236889692586</v>
       </c>
       <c r="F32">
-        <v>14.61200585651539</v>
+        <v>56.86274509803921</v>
       </c>
       <c r="G32">
         <v>4</v>
       </c>
       <c r="H32" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I32">
-        <v>39.14</v>
+        <v>6.4</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -1660,95 +1669,95 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" t="s">
-        <v>12</v>
-      </c>
-      <c r="B33" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="B33">
+        <v>300108</v>
       </c>
       <c r="C33" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="D33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E33">
-        <v>-47.05882352941176</v>
+        <v>-59.34065934065934</v>
       </c>
       <c r="F33">
-        <v>-51.95729537366548</v>
+        <v>-65.09433962264151</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H33" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I33">
-        <v>8.1</v>
+        <v>0.37</v>
       </c>
       <c r="J33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>12</v>
-      </c>
-      <c r="B34" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="B34">
+        <v>1234</v>
       </c>
       <c r="C34" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D34" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="E34">
-        <v>-47.72727272727273</v>
+        <v>39.3171806167401</v>
       </c>
       <c r="F34">
-        <v>-61.01694915254237</v>
+        <v>44.73684210526316</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H34" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I34">
-        <v>0.46</v>
+        <v>25.3</v>
       </c>
       <c r="J34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" t="s">
-        <v>12</v>
-      </c>
-      <c r="B35" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="B35">
+        <v>601086</v>
       </c>
       <c r="C35" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D35" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="E35">
-        <v>-33.09352517985611</v>
+        <v>121.5648854961832</v>
       </c>
       <c r="F35">
-        <v>-42.94478527607362</v>
+        <v>140.3726708074534</v>
       </c>
       <c r="G35">
         <v>5</v>
       </c>
       <c r="H35" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I35">
-        <v>0.93</v>
+        <v>11.61</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -1756,95 +1765,95 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" t="s">
-        <v>12</v>
-      </c>
-      <c r="B36" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="B36">
+        <v>839273</v>
       </c>
       <c r="C36" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D36" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="E36">
-        <v>26.58227848101264</v>
+        <v>79.17424045702417</v>
       </c>
       <c r="F36">
-        <v>21.80267965895248</v>
+        <v>153.8631346578367</v>
       </c>
       <c r="G36">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I36">
-        <v>20</v>
+        <v>69</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" t="s">
-        <v>12</v>
-      </c>
-      <c r="B37" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="B37">
+        <v>600610</v>
       </c>
       <c r="C37" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D37" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="E37">
-        <v>51.45474137931034</v>
+        <v>20.70815450643777</v>
       </c>
       <c r="F37">
-        <v>62.76780544296467</v>
+        <v>176.4127764127764</v>
       </c>
       <c r="G37">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I37">
-        <v>28.11</v>
+        <v>11.25</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" t="s">
-        <v>12</v>
-      </c>
-      <c r="B38" t="s">
-        <v>19</v>
+        <v>13</v>
+      </c>
+      <c r="B38">
+        <v>2693</v>
       </c>
       <c r="C38" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="D38" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E38">
-        <v>-29.61672473867596</v>
+        <v>54.35294117647058</v>
       </c>
       <c r="F38">
-        <v>-33.98692810457516</v>
+        <v>-6.218727662616164</v>
       </c>
       <c r="G38">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H38" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I38">
-        <v>2.02</v>
+        <v>13.12</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -1852,31 +1861,31 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" t="s">
-        <v>12</v>
-      </c>
-      <c r="B39" t="s">
-        <v>20</v>
+        <v>13</v>
+      </c>
+      <c r="B39">
+        <v>835179</v>
       </c>
       <c r="C39" t="s">
         <v>36</v>
       </c>
       <c r="D39" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E39">
-        <v>43.07334109429568</v>
+        <v>25.53968781135833</v>
       </c>
       <c r="F39">
-        <v>-10.48798252002914</v>
+        <v>11.73514631983446</v>
       </c>
       <c r="G39">
         <v>4</v>
       </c>
       <c r="H39" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I39">
-        <v>12.29</v>
+        <v>37.8</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -1884,31 +1893,31 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" t="s">
-        <v>12</v>
-      </c>
-      <c r="B40" t="s">
-        <v>21</v>
+        <v>13</v>
+      </c>
+      <c r="B40">
+        <v>873132</v>
       </c>
       <c r="C40" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="D40" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E40">
-        <v>90.60181368507831</v>
+        <v>25.58139534883721</v>
       </c>
       <c r="F40">
-        <v>66.45068394528437</v>
+        <v>26.13636363636365</v>
       </c>
       <c r="G40">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H40" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I40">
-        <v>23.12</v>
+        <v>19.98</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -1916,31 +1925,31 @@
     </row>
     <row r="41" spans="1:10">
       <c r="A41" t="s">
-        <v>12</v>
-      </c>
-      <c r="B41" t="s">
-        <v>22</v>
+        <v>13</v>
+      </c>
+      <c r="B41">
+        <v>605188</v>
       </c>
       <c r="C41" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="D41" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E41">
-        <v>59.32642487046633</v>
+        <v>81.44736842105263</v>
       </c>
       <c r="F41">
-        <v>68.0327868852459</v>
+        <v>86.35135135135133</v>
       </c>
       <c r="G41">
         <v>4</v>
       </c>
       <c r="H41" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I41">
-        <v>6.15</v>
+        <v>13.79</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -1948,31 +1957,31 @@
     </row>
     <row r="42" spans="1:10">
       <c r="A42" t="s">
-        <v>12</v>
-      </c>
-      <c r="B42" t="s">
-        <v>23</v>
+        <v>13</v>
+      </c>
+      <c r="B42">
+        <v>600804</v>
       </c>
       <c r="C42" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D42" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E42">
-        <v>20.4933586337761</v>
+        <v>-33.33333333333334</v>
       </c>
       <c r="F42">
-        <v>56.019656019656</v>
+        <v>-45.67901234567901</v>
       </c>
       <c r="G42">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H42" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="I42">
-        <v>6.35</v>
+        <v>0.88</v>
       </c>
       <c r="J42">
         <v>0</v>
@@ -1980,31 +1989,31 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43" t="s">
-        <v>12</v>
-      </c>
-      <c r="B43" t="s">
-        <v>24</v>
+        <v>14</v>
+      </c>
+      <c r="B43">
+        <v>872351</v>
       </c>
       <c r="C43" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D43" t="s">
         <v>66</v>
       </c>
       <c r="E43">
-        <v>121.6386554621849</v>
+        <v>104.0530007794232</v>
       </c>
       <c r="F43">
-        <v>121.6386554621849</v>
+        <v>66.43356643356644</v>
       </c>
       <c r="G43">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H43" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I43">
-        <v>10.55</v>
+        <v>26.18</v>
       </c>
       <c r="J43">
         <v>0</v>
@@ -2012,31 +2021,31 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44" t="s">
-        <v>12</v>
-      </c>
-      <c r="B44" t="s">
-        <v>25</v>
+        <v>14</v>
+      </c>
+      <c r="B44">
+        <v>600804</v>
       </c>
       <c r="C44" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="D44" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E44">
-        <v>106.266318537859</v>
+        <v>-33.09352517985611</v>
       </c>
       <c r="F44">
-        <v>182.2436584494462</v>
+        <v>-42.94478527607362</v>
       </c>
       <c r="G44">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H44" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="I44">
-        <v>79</v>
+        <v>0.93</v>
       </c>
       <c r="J44">
         <v>0</v>
@@ -2044,31 +2053,31 @@
     </row>
     <row r="45" spans="1:10">
       <c r="A45" t="s">
-        <v>12</v>
-      </c>
-      <c r="B45" t="s">
-        <v>26</v>
+        <v>14</v>
+      </c>
+      <c r="B45">
+        <v>601086</v>
       </c>
       <c r="C45" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="D45" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E45">
-        <v>104.0530007794232</v>
+        <v>121.6386554621849</v>
       </c>
       <c r="F45">
-        <v>66.43356643356644</v>
+        <v>121.6386554621849</v>
       </c>
       <c r="G45">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H45" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I45">
-        <v>26.18</v>
+        <v>10.55</v>
       </c>
       <c r="J45">
         <v>0</v>
@@ -2076,49 +2085,401 @@
     </row>
     <row r="46" spans="1:10">
       <c r="A46" t="s">
-        <v>12</v>
-      </c>
-      <c r="B46" t="s">
-        <v>27</v>
+        <v>14</v>
+      </c>
+      <c r="B46">
+        <v>300108</v>
       </c>
       <c r="C46" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D46" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E46">
-        <v>28.80184331797235</v>
+        <v>-47.72727272727273</v>
       </c>
       <c r="F46">
-        <v>178.1094527363184</v>
+        <v>-61.01694915254237</v>
       </c>
       <c r="G46">
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="I46">
-        <v>11.18</v>
+        <v>0.46</v>
       </c>
       <c r="J46">
         <v>1</v>
       </c>
     </row>
+    <row r="47" spans="1:10">
+      <c r="A47" t="s">
+        <v>14</v>
+      </c>
+      <c r="B47">
+        <v>835179</v>
+      </c>
+      <c r="C47" t="s">
+        <v>36</v>
+      </c>
+      <c r="D47" t="s">
+        <v>56</v>
+      </c>
+      <c r="E47">
+        <v>26.50290885585003</v>
+      </c>
+      <c r="F47">
+        <v>14.61200585651539</v>
+      </c>
+      <c r="G47">
+        <v>4</v>
+      </c>
+      <c r="H47" t="s">
+        <v>73</v>
+      </c>
+      <c r="I47">
+        <v>39.14</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" t="s">
+        <v>14</v>
+      </c>
+      <c r="B48">
+        <v>300379</v>
+      </c>
+      <c r="C48" t="s">
+        <v>22</v>
+      </c>
+      <c r="D48" t="s">
+        <v>69</v>
+      </c>
+      <c r="E48">
+        <v>-47.05882352941176</v>
+      </c>
+      <c r="F48">
+        <v>-51.95729537366548</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48" t="s">
+        <v>74</v>
+      </c>
+      <c r="I48">
+        <v>8.1</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" t="s">
+        <v>14</v>
+      </c>
+      <c r="B49">
+        <v>873132</v>
+      </c>
+      <c r="C49" t="s">
+        <v>29</v>
+      </c>
+      <c r="D49" t="s">
+        <v>55</v>
+      </c>
+      <c r="E49">
+        <v>26.58227848101264</v>
+      </c>
+      <c r="F49">
+        <v>21.80267965895248</v>
+      </c>
+      <c r="G49">
+        <v>5</v>
+      </c>
+      <c r="H49" t="s">
+        <v>73</v>
+      </c>
+      <c r="I49">
+        <v>20</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" t="s">
+        <v>14</v>
+      </c>
+      <c r="B50">
+        <v>839273</v>
+      </c>
+      <c r="C50" t="s">
+        <v>37</v>
+      </c>
+      <c r="D50" t="s">
+        <v>70</v>
+      </c>
+      <c r="E50">
+        <v>106.266318537859</v>
+      </c>
+      <c r="F50">
+        <v>182.2436584494462</v>
+      </c>
+      <c r="G50">
+        <v>3</v>
+      </c>
+      <c r="H50" t="s">
+        <v>73</v>
+      </c>
+      <c r="I50">
+        <v>79</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51">
+        <v>1234</v>
+      </c>
+      <c r="C51" t="s">
+        <v>28</v>
+      </c>
+      <c r="D51" t="s">
+        <v>55</v>
+      </c>
+      <c r="E51">
+        <v>51.45474137931034</v>
+      </c>
+      <c r="F51">
+        <v>62.76780544296467</v>
+      </c>
+      <c r="G51">
+        <v>5</v>
+      </c>
+      <c r="H51" t="s">
+        <v>73</v>
+      </c>
+      <c r="I51">
+        <v>28.11</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" t="s">
+        <v>14</v>
+      </c>
+      <c r="B52">
+        <v>600387</v>
+      </c>
+      <c r="C52" t="s">
+        <v>39</v>
+      </c>
+      <c r="D52" t="s">
+        <v>71</v>
+      </c>
+      <c r="E52">
+        <v>-29.61672473867596</v>
+      </c>
+      <c r="F52">
+        <v>-33.98692810457516</v>
+      </c>
+      <c r="G52">
+        <v>4</v>
+      </c>
+      <c r="H52" t="s">
+        <v>74</v>
+      </c>
+      <c r="I52">
+        <v>2.02</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B53">
+        <v>600610</v>
+      </c>
+      <c r="C53" t="s">
+        <v>31</v>
+      </c>
+      <c r="D53" t="s">
+        <v>72</v>
+      </c>
+      <c r="E53">
+        <v>28.80184331797235</v>
+      </c>
+      <c r="F53">
+        <v>178.1094527363184</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53" t="s">
+        <v>73</v>
+      </c>
+      <c r="I53">
+        <v>11.18</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" t="s">
+        <v>14</v>
+      </c>
+      <c r="B54">
+        <v>831087</v>
+      </c>
+      <c r="C54" t="s">
+        <v>40</v>
+      </c>
+      <c r="D54" t="s">
+        <v>56</v>
+      </c>
+      <c r="E54">
+        <v>90.60181368507831</v>
+      </c>
+      <c r="F54">
+        <v>66.45068394528437</v>
+      </c>
+      <c r="G54">
+        <v>4</v>
+      </c>
+      <c r="H54" t="s">
+        <v>73</v>
+      </c>
+      <c r="I54">
+        <v>23.12</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" t="s">
+        <v>14</v>
+      </c>
+      <c r="B55">
+        <v>601008</v>
+      </c>
+      <c r="C55" t="s">
+        <v>41</v>
+      </c>
+      <c r="D55" t="s">
+        <v>56</v>
+      </c>
+      <c r="E55">
+        <v>59.32642487046633</v>
+      </c>
+      <c r="F55">
+        <v>68.0327868852459</v>
+      </c>
+      <c r="G55">
+        <v>4</v>
+      </c>
+      <c r="H55" t="s">
+        <v>73</v>
+      </c>
+      <c r="I55">
+        <v>6.15</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" t="s">
+        <v>14</v>
+      </c>
+      <c r="B56">
+        <v>2289</v>
+      </c>
+      <c r="C56" t="s">
+        <v>34</v>
+      </c>
+      <c r="D56" t="s">
+        <v>56</v>
+      </c>
+      <c r="E56">
+        <v>20.4933586337761</v>
+      </c>
+      <c r="F56">
+        <v>56.019656019656</v>
+      </c>
+      <c r="G56">
+        <v>4</v>
+      </c>
+      <c r="H56" t="s">
+        <v>73</v>
+      </c>
+      <c r="I56">
+        <v>6.35</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" t="s">
+        <v>14</v>
+      </c>
+      <c r="B57">
+        <v>2693</v>
+      </c>
+      <c r="C57" t="s">
+        <v>27</v>
+      </c>
+      <c r="D57" t="s">
+        <v>56</v>
+      </c>
+      <c r="E57">
+        <v>43.07334109429568</v>
+      </c>
+      <c r="F57">
+        <v>-10.48798252002914</v>
+      </c>
+      <c r="G57">
+        <v>4</v>
+      </c>
+      <c r="H57" t="s">
+        <v>73</v>
+      </c>
+      <c r="I57">
+        <v>12.29</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="D10">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="17">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="17">
       <formula>LEN(TRIM(D10))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="19">
+    <cfRule type="notContainsBlanks" dxfId="4" priority="19">
       <formula>LEN(TRIM(D11))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="21">
+    <cfRule type="notContainsBlanks" dxfId="4" priority="21">
       <formula>LEN(TRIM(D12))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2128,32 +2489,32 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="25">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="25">
       <formula>LEN(TRIM(D14))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="27">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="27">
       <formula>LEN(TRIM(D15))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="29">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="29">
       <formula>LEN(TRIM(D16))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="31">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="31">
       <formula>LEN(TRIM(D17))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="33">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="33">
       <formula>LEN(TRIM(D18))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="35">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="35">
       <formula>LEN(TRIM(D19))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2168,42 +2529,42 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="39">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="39">
       <formula>LEN(TRIM(D21))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="41">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="41">
       <formula>LEN(TRIM(D22))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="43">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="43">
       <formula>LEN(TRIM(D23))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="45">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="45">
       <formula>LEN(TRIM(D24))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="47">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="47">
       <formula>LEN(TRIM(D25))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="49">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="49">
       <formula>LEN(TRIM(D26))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="51">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="51">
       <formula>LEN(TRIM(D27))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="53">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="53">
       <formula>LEN(TRIM(D28))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2218,17 +2579,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="57">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="57">
       <formula>LEN(TRIM(D30))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="59">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="59">
       <formula>LEN(TRIM(D31))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="61">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="61">
       <formula>LEN(TRIM(D32))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2243,7 +2604,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="67">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="67">
       <formula>LEN(TRIM(D35))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2253,58 +2614,73 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="71">
+    <cfRule type="notContainsBlanks" dxfId="4" priority="71">
       <formula>LEN(TRIM(D37))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="73">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="73">
       <formula>LEN(TRIM(D38))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="75">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="75">
       <formula>LEN(TRIM(D39))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="5">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="5">
       <formula>LEN(TRIM(D4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="77">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="77">
       <formula>LEN(TRIM(D40))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="79">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="79">
       <formula>LEN(TRIM(D41))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="81">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="81">
       <formula>LEN(TRIM(D42))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="83">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="83">
       <formula>LEN(TRIM(D43))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="85">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="85">
       <formula>LEN(TRIM(D44))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="87">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="87">
       <formula>LEN(TRIM(D45))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="89">
+    <cfRule type="notContainsBlanks" dxfId="4" priority="89">
       <formula>LEN(TRIM(D46))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D47">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="91">
+      <formula>LEN(TRIM(D47))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D48">
+    <cfRule type="notContainsBlanks" dxfId="4" priority="93">
+      <formula>LEN(TRIM(D48))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="95">
+      <formula>LEN(TRIM(D49))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
@@ -2312,8 +2688,48 @@
       <formula>LEN(TRIM(D5))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D50">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="97">
+      <formula>LEN(TRIM(D50))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D51">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="99">
+      <formula>LEN(TRIM(D51))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D52">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="101">
+      <formula>LEN(TRIM(D52))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D53">
+    <cfRule type="notContainsBlanks" dxfId="4" priority="103">
+      <formula>LEN(TRIM(D53))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D54">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="105">
+      <formula>LEN(TRIM(D54))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D55">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="107">
+      <formula>LEN(TRIM(D55))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D56">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="109">
+      <formula>LEN(TRIM(D56))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D57">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="111">
+      <formula>LEN(TRIM(D57))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D6">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="9">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="9">
       <formula>LEN(TRIM(D6))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2328,12 +2744,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="15">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="15">
       <formula>LEN(TRIM(D9))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="18">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="18">
       <formula>LEN(TRIM(H10))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2348,17 +2764,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="24">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="24">
       <formula>LEN(TRIM(H13))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="26">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="26">
       <formula>LEN(TRIM(H14))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="28">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="28">
       <formula>LEN(TRIM(H15))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2378,7 +2794,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="36">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="36">
       <formula>LEN(TRIM(H19))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2398,12 +2814,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="42">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="42">
       <formula>LEN(TRIM(H22))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="44">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="44">
       <formula>LEN(TRIM(H23))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2428,7 +2844,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="54">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="54">
       <formula>LEN(TRIM(H28))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2443,7 +2859,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="58">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="58">
       <formula>LEN(TRIM(H30))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2463,12 +2879,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="66">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="66">
       <formula>LEN(TRIM(H34))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="68">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="68">
       <formula>LEN(TRIM(H35))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2483,7 +2899,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="74">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="74">
       <formula>LEN(TRIM(H38))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2493,7 +2909,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="6">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="6">
       <formula>LEN(TRIM(H4))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2508,7 +2924,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="82">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="82">
       <formula>LEN(TRIM(H42))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2518,7 +2934,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H44">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="86">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="86">
       <formula>LEN(TRIM(H44))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2528,22 +2944,77 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H46">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="90">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="90">
       <formula>LEN(TRIM(H46))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="H47">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="92">
+      <formula>LEN(TRIM(H47))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H48">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="94">
+      <formula>LEN(TRIM(H48))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H49">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="96">
+      <formula>LEN(TRIM(H49))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="8">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="8">
       <formula>LEN(TRIM(H5))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="H50">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="98">
+      <formula>LEN(TRIM(H50))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H51">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="100">
+      <formula>LEN(TRIM(H51))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H52">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="102">
+      <formula>LEN(TRIM(H52))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H53">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="104">
+      <formula>LEN(TRIM(H53))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H54">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="106">
+      <formula>LEN(TRIM(H54))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H55">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="108">
+      <formula>LEN(TRIM(H55))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H56">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="110">
+      <formula>LEN(TRIM(H56))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H57">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="112">
+      <formula>LEN(TRIM(H57))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="10">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="10">
       <formula>LEN(TRIM(H6))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="12">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="12">
       <formula>LEN(TRIM(H7))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
